--- a/biology/Botanique/Benoni_(pomme)/Benoni_(pomme).xlsx
+++ b/biology/Botanique/Benoni_(pomme)/Benoni_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Benoni est un cultivar de pommier domestique.
 Nom botanique: Malus domestica Borkh benoni
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dedham, Massachusetts, États-Unis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dedham, Massachusetts, États-Unis.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1848 : Premiers arbres.
 1831 : Mise sur le marché par R. Mason</t>
@@ -574,11 +590,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Chair: jaune, ferme, croquante, finement granuleuse, tendre, juteuse, d'acidité agréable[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chair: jaune, ferme, croquante, finement granuleuse, tendre, juteuse, d'acidité agréable.
 Calibre : moyen à petit.
-Pédoncule : très court[3].</t>
+Pédoncule : très court.</t>
         </is>
       </c>
     </row>
@@ -606,11 +624,13 @@
           <t>Pollinisation.</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Variété diploïde.
-Groupe de floraison: B [4].
-S-génotype: S5S11 [5].</t>
+Groupe de floraison: B .
+S-génotype: S5S11 .</t>
         </is>
       </c>
     </row>
@@ -638,7 +658,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Maturité : précoce (début août).</t>
         </is>
